--- a/data/trans_orig/P23_1_2016_2023_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P23_1_2016_2023_R-Provincia-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>106331</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>89511</v>
+        <v>90169</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>124210</v>
+        <v>123049</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3619643406223501</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3047060171520959</v>
+        <v>0.3069453772027539</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4228278575834483</v>
+        <v>0.4188752516938808</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>73</v>
@@ -763,19 +763,19 @@
         <v>73714</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>59949</v>
+        <v>59222</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>90981</v>
+        <v>89513</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2553269152843574</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2076495397860889</v>
+        <v>0.2051321419634563</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3151364491497499</v>
+        <v>0.3100526868826073</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>168</v>
@@ -784,19 +784,19 @@
         <v>180045</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>157300</v>
+        <v>153754</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>202735</v>
+        <v>202034</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3091086369981988</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2700587894560576</v>
+        <v>0.2639720569709981</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3480638986427715</v>
+        <v>0.3468610670835894</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>187430</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>169551</v>
+        <v>170712</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>204250</v>
+        <v>203592</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6380356593776499</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.577172142416552</v>
+        <v>0.5811247483061193</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6952939828479046</v>
+        <v>0.6930546227972461</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>204</v>
@@ -834,19 +834,19 @@
         <v>214989</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>197722</v>
+        <v>199190</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>228754</v>
+        <v>229481</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7446730847156425</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6848635508502501</v>
+        <v>0.6899473131173925</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7923504602139108</v>
+        <v>0.7948678580365437</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>375</v>
@@ -855,19 +855,19 @@
         <v>402419</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>379729</v>
+        <v>380430</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>425164</v>
+        <v>428710</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6908913630018011</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6519361013572285</v>
+        <v>0.6531389329164106</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7299412105439425</v>
+        <v>0.7360279430290019</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>209041</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>188215</v>
+        <v>186161</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>231434</v>
+        <v>231242</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4166568461059128</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.375146860173872</v>
+        <v>0.3710531273401255</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4612894916299427</v>
+        <v>0.4609058487255014</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>134</v>
@@ -980,19 +980,19 @@
         <v>140848</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>118810</v>
+        <v>121378</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>159552</v>
+        <v>160138</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2704014315120257</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2280912126032569</v>
+        <v>0.2330216687303114</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3063087704492884</v>
+        <v>0.3074335655005928</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>329</v>
@@ -1001,19 +1001,19 @@
         <v>349890</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>320213</v>
+        <v>318500</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>383269</v>
+        <v>379960</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3421578714472435</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3131369900519734</v>
+        <v>0.3114620471769159</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.37479946468518</v>
+        <v>0.3715636587688736</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>292670</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>270277</v>
+        <v>270469</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>313496</v>
+        <v>315550</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5833431538940872</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5387105083700573</v>
+        <v>0.5390941512744989</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.624853139826128</v>
+        <v>0.6289468726598748</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>348</v>
@@ -1051,19 +1051,19 @@
         <v>380038</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>361334</v>
+        <v>360748</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>402076</v>
+        <v>399508</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7295985684879742</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6936912295507116</v>
+        <v>0.6925664344994074</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7719087873967431</v>
+        <v>0.7669783312696888</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>627</v>
@@ -1072,19 +1072,19 @@
         <v>672707</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>639328</v>
+        <v>642637</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>702384</v>
+        <v>704097</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6578421285527566</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6252005353148201</v>
+        <v>0.6284363412311268</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.686863009948027</v>
+        <v>0.6885379528230841</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>96331</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>81402</v>
+        <v>81430</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>112905</v>
+        <v>113866</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3023891223885004</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2555268362168266</v>
+        <v>0.255614511673097</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3544187808554471</v>
+        <v>0.3574327049174115</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>83</v>
@@ -1197,19 +1197,19 @@
         <v>81403</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>66272</v>
+        <v>65716</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>95469</v>
+        <v>97205</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.242048269451268</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1970574679787342</v>
+        <v>0.1954025471139759</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2838719234281922</v>
+        <v>0.2890352995003008</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>183</v>
@@ -1218,19 +1218,19 @@
         <v>177734</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>158162</v>
+        <v>156574</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>200079</v>
+        <v>202470</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2714012193058363</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.241514861146699</v>
+        <v>0.2390903412388136</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3055236517860644</v>
+        <v>0.3091741562053482</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>222234</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>205660</v>
+        <v>204699</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>237163</v>
+        <v>237135</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6976108776114996</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6455812191445527</v>
+        <v>0.6425672950825885</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7444731637831732</v>
+        <v>0.7443854883269032</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>249</v>
@@ -1268,19 +1268,19 @@
         <v>254906</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>240840</v>
+        <v>239104</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>270037</v>
+        <v>270593</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.757951730548732</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7161280765718078</v>
+        <v>0.7109647004996993</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8029425320212658</v>
+        <v>0.8045974528860241</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>484</v>
@@ -1289,19 +1289,19 @@
         <v>477140</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>454795</v>
+        <v>452404</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>496712</v>
+        <v>498300</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7285987806941637</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6944763482139354</v>
+        <v>0.6908258437946517</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.758485138853301</v>
+        <v>0.7609096587611863</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>139287</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>119292</v>
+        <v>120998</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>157996</v>
+        <v>159884</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3764868899381639</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3224428693855744</v>
+        <v>0.3270545405761193</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4270572112008059</v>
+        <v>0.4321608259923127</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>101</v>
@@ -1414,19 +1414,19 @@
         <v>108757</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>89149</v>
+        <v>90199</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>126892</v>
+        <v>127120</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2817555711039104</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.230956069195597</v>
+        <v>0.233678627319666</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3287383483816649</v>
+        <v>0.3293274701358817</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>230</v>
@@ -1435,19 +1435,19 @@
         <v>248044</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>222181</v>
+        <v>221126</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>273893</v>
+        <v>276593</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.328116632064523</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2939052070647897</v>
+        <v>0.2925087523298938</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3623102087178073</v>
+        <v>0.3658827985085915</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>230677</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>211968</v>
+        <v>210080</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>250672</v>
+        <v>248966</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6235131100618361</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5729427887991941</v>
+        <v>0.5678391740076874</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6775571306144254</v>
+        <v>0.6729454594238808</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>256</v>
@@ -1485,19 +1485,19 @@
         <v>277241</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>259106</v>
+        <v>258878</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>296849</v>
+        <v>295799</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7182444288960896</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6712616516183351</v>
+        <v>0.6706725298641183</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7690439308044028</v>
+        <v>0.7663213726803341</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>481</v>
@@ -1506,19 +1506,19 @@
         <v>507918</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>482069</v>
+        <v>479369</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>533781</v>
+        <v>534836</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6718833679354771</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6376897912821933</v>
+        <v>0.6341172014914086</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7060947929352105</v>
+        <v>0.7074912476701062</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>85131</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>70817</v>
+        <v>71315</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>100205</v>
+        <v>100827</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4030416011637373</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3352726614719509</v>
+        <v>0.3376298992674674</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4744101427805098</v>
+        <v>0.4773551021079643</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>60</v>
@@ -1631,19 +1631,19 @@
         <v>56643</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>43931</v>
+        <v>44816</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>69908</v>
+        <v>70532</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.259132262533318</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2009772397361512</v>
+        <v>0.205024298595553</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3198196338977598</v>
+        <v>0.3226739430806057</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>142</v>
@@ -1652,19 +1652,19 @@
         <v>141774</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>120618</v>
+        <v>122486</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>161600</v>
+        <v>161533</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.329853780716831</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2806331833752189</v>
+        <v>0.2849783842991657</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3759815781744583</v>
+        <v>0.3758259911650237</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>126090</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>111016</v>
+        <v>110394</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>140404</v>
+        <v>139906</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5969583988362627</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5255898572194903</v>
+        <v>0.5226448978920357</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.664727338528049</v>
+        <v>0.6623701007325327</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>163</v>
@@ -1702,19 +1702,19 @@
         <v>161944</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>148679</v>
+        <v>148055</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>174656</v>
+        <v>173771</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.740867737466682</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6801803661022403</v>
+        <v>0.6773260569193946</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7990227602638493</v>
+        <v>0.7949757014044472</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>293</v>
@@ -1723,19 +1723,19 @@
         <v>288034</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>268208</v>
+        <v>268275</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>309190</v>
+        <v>307322</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.670146219283169</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6240184218255415</v>
+        <v>0.6241740088349762</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7193668166247811</v>
+        <v>0.7150216157008339</v>
       </c>
     </row>
     <row r="18">
@@ -1827,19 +1827,19 @@
         <v>88230</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>72893</v>
+        <v>73748</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>104398</v>
+        <v>103642</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3353189246955385</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2770288702590437</v>
+        <v>0.2802801562651467</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3967638578200474</v>
+        <v>0.3938916391465125</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>71</v>
@@ -1848,19 +1848,19 @@
         <v>73058</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>59600</v>
+        <v>59504</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>90835</v>
+        <v>88072</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2674992022600141</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2182239491646378</v>
+        <v>0.2178699000924394</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3325881327561677</v>
+        <v>0.3224707410047542</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>156</v>
@@ -1869,19 +1869,19 @@
         <v>161288</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>142164</v>
+        <v>141146</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>182201</v>
+        <v>183043</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.300777203415509</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2651142020136563</v>
+        <v>0.2632146800128091</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3397757892659958</v>
+        <v>0.3413470650265786</v>
       </c>
     </row>
     <row r="20">
@@ -1898,19 +1898,19 @@
         <v>174893</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>158725</v>
+        <v>159481</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>190230</v>
+        <v>189375</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6646810753044615</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6032361421799526</v>
+        <v>0.6061083608534872</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7229711297409563</v>
+        <v>0.719719843734853</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>192</v>
@@ -1919,19 +1919,19 @@
         <v>200057</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>182280</v>
+        <v>185043</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>213515</v>
+        <v>213611</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7325007977399859</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6674118672438326</v>
+        <v>0.677529258995246</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7817760508353624</v>
+        <v>0.7821300999075608</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>366</v>
@@ -1940,19 +1940,19 @@
         <v>374950</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>354037</v>
+        <v>353195</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>394074</v>
+        <v>395092</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.699222796584491</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6602242107340041</v>
+        <v>0.6586529349734213</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7348857979863436</v>
+        <v>0.7367853199871905</v>
       </c>
     </row>
     <row r="21">
@@ -2044,19 +2044,19 @@
         <v>196729</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>173297</v>
+        <v>171847</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>221206</v>
+        <v>222199</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3001263085251201</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2643800030872708</v>
+        <v>0.2621677661187848</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3374686429087441</v>
+        <v>0.3389836224493604</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>167</v>
@@ -2065,19 +2065,19 @@
         <v>173267</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>149871</v>
+        <v>149715</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>194975</v>
+        <v>197034</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2513528246268104</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2174127110852898</v>
+        <v>0.2171862961060783</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2828428283354438</v>
+        <v>0.2858297151838854</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>335</v>
@@ -2086,19 +2086,19 @@
         <v>369996</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>333922</v>
+        <v>336155</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>400530</v>
+        <v>409140</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2751256878394659</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2483016760564204</v>
+        <v>0.2499621361550119</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2978302620234682</v>
+        <v>0.3042327351890305</v>
       </c>
     </row>
     <row r="23">
@@ -2115,19 +2115,19 @@
         <v>458757</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>434280</v>
+        <v>433287</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>482189</v>
+        <v>483639</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.69987369147488</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.662531357091256</v>
+        <v>0.6610163775506397</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7356199969127293</v>
+        <v>0.7378322338812152</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>477</v>
@@ -2136,19 +2136,19 @@
         <v>516072</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>494364</v>
+        <v>492305</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>539468</v>
+        <v>539624</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7486471753731896</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7171571716645562</v>
+        <v>0.7141702848161143</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7825872889147102</v>
+        <v>0.7828137038939216</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>888</v>
@@ -2157,19 +2157,19 @@
         <v>974829</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>944295</v>
+        <v>935685</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1010903</v>
+        <v>1008670</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7248743121605341</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7021697379765315</v>
+        <v>0.6957672648109695</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7516983239435796</v>
+        <v>0.7500378638449881</v>
       </c>
     </row>
     <row r="24">
@@ -2261,19 +2261,19 @@
         <v>255058</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>229774</v>
+        <v>227906</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>283731</v>
+        <v>280768</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3275929161351541</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2951184095599743</v>
+        <v>0.2927190097541907</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3644199455347222</v>
+        <v>0.3606141943039228</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>204</v>
@@ -2282,19 +2282,19 @@
         <v>214288</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>188411</v>
+        <v>191468</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>239278</v>
+        <v>240402</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2593766946169654</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2280546337031535</v>
+        <v>0.2317544242896866</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2896240722738817</v>
+        <v>0.2909851767432761</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>444</v>
@@ -2303,19 +2303,19 @@
         <v>469347</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>432284</v>
+        <v>432772</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>508030</v>
+        <v>506056</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2924734325635058</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2693779087967666</v>
+        <v>0.2696820434473863</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3165788775017832</v>
+        <v>0.3153489274723229</v>
       </c>
     </row>
     <row r="26">
@@ -2332,19 +2332,19 @@
         <v>523525</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>494852</v>
+        <v>497815</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>548809</v>
+        <v>550677</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6724070838648459</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.635580054465278</v>
+        <v>0.6393858056960774</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7048815904400261</v>
+        <v>0.7072809902458094</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>551</v>
@@ -2353,19 +2353,19 @@
         <v>611879</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>586889</v>
+        <v>585765</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>637756</v>
+        <v>634699</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7406233053830346</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7103759277261182</v>
+        <v>0.7090148232567238</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7719453662968466</v>
+        <v>0.7682455757103137</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1061</v>
@@ -2374,19 +2374,19 @@
         <v>1135403</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1096720</v>
+        <v>1098694</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1172466</v>
+        <v>1171978</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7075265674364942</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6834211224982167</v>
+        <v>0.6846510725276771</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7306220912032333</v>
+        <v>0.7303179565526136</v>
       </c>
     </row>
     <row r="27">
@@ -2478,19 +2478,19 @@
         <v>1176137</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1119128</v>
+        <v>1116145</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1231797</v>
+        <v>1230954</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3466962845575992</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3298913901695234</v>
+        <v>0.3290120175879894</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3631035297314275</v>
+        <v>0.3628549158123226</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>893</v>
@@ -2499,19 +2499,19 @@
         <v>921979</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>869446</v>
+        <v>867694</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>975772</v>
+        <v>980415</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2605119304646502</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2456685304786344</v>
+        <v>0.2451734870609874</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2757115418303183</v>
+        <v>0.2770235842803463</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1987</v>
@@ -2520,19 +2520,19 @@
         <v>2098116</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2015935</v>
+        <v>2024341</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2177136</v>
+        <v>2182727</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3026921600306471</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2908360125738308</v>
+        <v>0.292048827185374</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3140923339294397</v>
+        <v>0.3148988635813798</v>
       </c>
     </row>
     <row r="29">
@@ -2549,19 +2549,19 @@
         <v>2216277</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2160617</v>
+        <v>2161460</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2273286</v>
+        <v>2276269</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6533037154424008</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6368964702685724</v>
+        <v>0.6371450841876773</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6701086098304765</v>
+        <v>0.6709879824120105</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2440</v>
@@ -2570,19 +2570,19 @@
         <v>2617124</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2563331</v>
+        <v>2558688</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2669657</v>
+        <v>2671409</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7394880695353498</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7242884581696817</v>
+        <v>0.7229764157196541</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7543314695213658</v>
+        <v>0.7548265129390126</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4575</v>
@@ -2591,19 +2591,19 @@
         <v>4833401</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4754381</v>
+        <v>4748790</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4915582</v>
+        <v>4907176</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6973078399693529</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6859076660705602</v>
+        <v>0.6851011364186201</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.709163987426169</v>
+        <v>0.7079511728146259</v>
       </c>
     </row>
     <row r="30">
@@ -2939,19 +2939,19 @@
         <v>75950</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>59013</v>
+        <v>60927</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>92623</v>
+        <v>94090</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2382049259649349</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1850847027701628</v>
+        <v>0.1910871163910575</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2904943308850426</v>
+        <v>0.2950948281028629</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>115</v>
@@ -2960,19 +2960,19 @@
         <v>66333</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>54691</v>
+        <v>56099</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>79037</v>
+        <v>78235</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2098752409768903</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1730399273190198</v>
+        <v>0.177493031278212</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2500691124501425</v>
+        <v>0.247532245427113</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>189</v>
@@ -2981,19 +2981,19 @@
         <v>142284</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>123278</v>
+        <v>122381</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>163758</v>
+        <v>161414</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2241022091479093</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1941677622799313</v>
+        <v>0.1927541174655321</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.25792408859705</v>
+        <v>0.2542332969606408</v>
       </c>
     </row>
     <row r="5">
@@ -3010,19 +3010,19 @@
         <v>242895</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>226222</v>
+        <v>224755</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>259832</v>
+        <v>257918</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.761795074035065</v>
+        <v>0.7617950740350651</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7095056691149575</v>
+        <v>0.7049051718971372</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.814915297229837</v>
+        <v>0.8089128836089426</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>423</v>
@@ -3031,19 +3031,19 @@
         <v>249728</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>237024</v>
+        <v>237826</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>261370</v>
+        <v>259962</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7901247590231099</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7499308875498577</v>
+        <v>0.7524677545728872</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8269600726809803</v>
+        <v>0.822506968721788</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>680</v>
@@ -3052,19 +3052,19 @@
         <v>492622</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>471148</v>
+        <v>473492</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>511628</v>
+        <v>512525</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7758977908520909</v>
+        <v>0.7758977908520908</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7420759114029507</v>
+        <v>0.7457667030393591</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.805832237720069</v>
+        <v>0.8072458825344677</v>
       </c>
     </row>
     <row r="6">
@@ -3156,19 +3156,19 @@
         <v>136735</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>113561</v>
+        <v>107794</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>164833</v>
+        <v>162184</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2576751206293122</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2140047718446677</v>
+        <v>0.2031365170332769</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3106260555939131</v>
+        <v>0.3056346701019641</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>130</v>
@@ -3177,19 +3177,19 @@
         <v>103279</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>86714</v>
+        <v>87636</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>120116</v>
+        <v>121349</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1889847725424723</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1586727330120954</v>
+        <v>0.1603613196088643</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2197941728255511</v>
+        <v>0.2220491744654872</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>222</v>
@@ -3198,19 +3198,19 @@
         <v>240014</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>210289</v>
+        <v>211485</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>270912</v>
+        <v>273233</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2228246464676114</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1952287866011011</v>
+        <v>0.1963390941868921</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2515104420275319</v>
+        <v>0.2536646488262799</v>
       </c>
     </row>
     <row r="8">
@@ -3227,19 +3227,19 @@
         <v>393912</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>365814</v>
+        <v>368463</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>417086</v>
+        <v>422853</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7423248793706878</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.689373944406087</v>
+        <v>0.694365329898036</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7859952281553325</v>
+        <v>0.796863482966723</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>587</v>
@@ -3248,19 +3248,19 @@
         <v>443215</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>426378</v>
+        <v>425145</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>459780</v>
+        <v>458858</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8110152274575276</v>
+        <v>0.8110152274575277</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7802058271744489</v>
+        <v>0.7779508255345126</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8413272669879046</v>
+        <v>0.8396386803911355</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>877</v>
@@ -3269,19 +3269,19 @@
         <v>837127</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>806229</v>
+        <v>803908</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>866852</v>
+        <v>865656</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7771753535323888</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7484895579724682</v>
+        <v>0.7463353511737201</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8047712133988988</v>
+        <v>0.8036609058131078</v>
       </c>
     </row>
     <row r="9">
@@ -3373,19 +3373,19 @@
         <v>79561</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>65442</v>
+        <v>65566</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>94756</v>
+        <v>96184</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2517811047573517</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2070983455759561</v>
+        <v>0.2074934795149166</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2998667420175532</v>
+        <v>0.3043861804672953</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>92</v>
@@ -3394,19 +3394,19 @@
         <v>64635</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>53761</v>
+        <v>53140</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>78530</v>
+        <v>79150</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1813635007163832</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.150852157525538</v>
+        <v>0.149110209133047</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2203533531755233</v>
+        <v>0.2220932241035765</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>178</v>
@@ -3415,19 +3415,19 @@
         <v>144196</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>126587</v>
+        <v>124232</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>164513</v>
+        <v>164392</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2144573959005603</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1882681041413191</v>
+        <v>0.1847660106014845</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2446750733542045</v>
+        <v>0.2444941232776069</v>
       </c>
     </row>
     <row r="11">
@@ -3444,19 +3444,19 @@
         <v>236432</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>221237</v>
+        <v>219809</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>250551</v>
+        <v>250427</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7482188952426483</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7001332579824467</v>
+        <v>0.6956138195327051</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.792901654424044</v>
+        <v>0.7925065204850835</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>444</v>
@@ -3465,19 +3465,19 @@
         <v>291746</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>277851</v>
+        <v>277231</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>302620</v>
+        <v>303241</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8186364992836166</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7796466468244772</v>
+        <v>0.7779067758964237</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8491478424744621</v>
+        <v>0.8508897908669533</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>718</v>
@@ -3486,19 +3486,19 @@
         <v>528179</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>507862</v>
+        <v>507983</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>545788</v>
+        <v>548143</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7855426040994398</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7553249266457955</v>
+        <v>0.7555058767223929</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8117318958586807</v>
+        <v>0.8152339893985153</v>
       </c>
     </row>
     <row r="12">
@@ -3590,19 +3590,19 @@
         <v>92572</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>72024</v>
+        <v>71737</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>119910</v>
+        <v>118861</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2480866207564806</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.193018728449997</v>
+        <v>0.1922507017797575</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.321349453113839</v>
+        <v>0.3185381636363206</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>91</v>
@@ -3611,19 +3611,19 @@
         <v>80223</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>65367</v>
+        <v>64008</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>98375</v>
+        <v>98144</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1901198577288332</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1549134019085944</v>
+        <v>0.1516915395765133</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2331368140103415</v>
+        <v>0.232589879233296</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>153</v>
@@ -3632,19 +3632,19 @@
         <v>172796</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>146580</v>
+        <v>147711</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>203258</v>
+        <v>203370</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2173237823194817</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1843523243691246</v>
+        <v>0.1857746389085532</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2556355805461138</v>
+        <v>0.2557764238127089</v>
       </c>
     </row>
     <row r="14">
@@ -3661,19 +3661,19 @@
         <v>280573</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>253235</v>
+        <v>254284</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>301121</v>
+        <v>301408</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7519133792435195</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6786505468861612</v>
+        <v>0.6814618363636793</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8069812715500031</v>
+        <v>0.8077492982202424</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>508</v>
@@ -3682,19 +3682,19 @@
         <v>341738</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>323586</v>
+        <v>323817</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>356594</v>
+        <v>357953</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8098801422711669</v>
+        <v>0.8098801422711668</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7668631859896586</v>
+        <v>0.767410120766704</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8450865980914056</v>
+        <v>0.8483084604234865</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>738</v>
@@ -3703,19 +3703,19 @@
         <v>622311</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>591849</v>
+        <v>591737</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>648527</v>
+        <v>647396</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7826762176805183</v>
+        <v>0.7826762176805182</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7443644194538862</v>
+        <v>0.7442235761872912</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8156476756308754</v>
+        <v>0.8142253610914468</v>
       </c>
     </row>
     <row r="15">
@@ -3807,19 +3807,19 @@
         <v>41121</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>32974</v>
+        <v>31694</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>52428</v>
+        <v>52103</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1999406945755478</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1603267042443932</v>
+        <v>0.1541065063300679</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2549216240686827</v>
+        <v>0.2533411845550071</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>69</v>
@@ -3828,19 +3828,19 @@
         <v>32172</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>24775</v>
+        <v>24992</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>39595</v>
+        <v>41427</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1415940899171621</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1090386743601453</v>
+        <v>0.1099948334886457</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1742605199772786</v>
+        <v>0.1823250810703554</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>126</v>
@@ -3849,19 +3849,19 @@
         <v>73293</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>62049</v>
+        <v>60719</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>87620</v>
+        <v>85685</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1693150617541495</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1433408597354857</v>
+        <v>0.1402679669293195</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2024127856751943</v>
+        <v>0.1979422809754426</v>
       </c>
     </row>
     <row r="17">
@@ -3878,19 +3878,19 @@
         <v>164544</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>153237</v>
+        <v>153562</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>172691</v>
+        <v>173971</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8000593054244522</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7450783759313172</v>
+        <v>0.7466588154449928</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8396732957556069</v>
+        <v>0.8458934936699319</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>423</v>
@@ -3899,19 +3899,19 @@
         <v>195043</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>187620</v>
+        <v>185788</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>202440</v>
+        <v>202223</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8584059100828381</v>
+        <v>0.8584059100828377</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8257394800227215</v>
+        <v>0.8176749189296446</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8909613256398548</v>
+        <v>0.8900051665113544</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>645</v>
@@ -3920,19 +3920,19 @@
         <v>359586</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>345259</v>
+        <v>347194</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>370830</v>
+        <v>372160</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8306849382458505</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7975872143248054</v>
+        <v>0.8020577190245572</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8566591402645142</v>
+        <v>0.8597320330706802</v>
       </c>
     </row>
     <row r="18">
@@ -4024,19 +4024,19 @@
         <v>75975</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>61885</v>
+        <v>63631</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>89561</v>
+        <v>92126</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2806544521865387</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2286039742142464</v>
+        <v>0.2350541064481423</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3308416026543257</v>
+        <v>0.3403166786112312</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>77</v>
@@ -4045,19 +4045,19 @@
         <v>48886</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>39436</v>
+        <v>38945</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>59745</v>
+        <v>59228</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1853479947328306</v>
+        <v>0.1853479947328305</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1495222421152161</v>
+        <v>0.1476588612917062</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2265224548485566</v>
+        <v>0.2245610168041823</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>171</v>
@@ -4066,19 +4066,19 @@
         <v>124861</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>108793</v>
+        <v>108205</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>143520</v>
+        <v>142114</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2336214949606182</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2035588943263971</v>
+        <v>0.2024570226213592</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2685335418604856</v>
+        <v>0.2659032781240152</v>
       </c>
     </row>
     <row r="20">
@@ -4095,19 +4095,19 @@
         <v>194732</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>181146</v>
+        <v>178581</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>208822</v>
+        <v>207076</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7193455478134614</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6691583973456744</v>
+        <v>0.6596833213887688</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7713960257857533</v>
+        <v>0.7649458935518576</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>383</v>
@@ -4116,19 +4116,19 @@
         <v>214864</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>204005</v>
+        <v>204522</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>224314</v>
+        <v>224805</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8146520052671696</v>
+        <v>0.8146520052671692</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7734775451514435</v>
+        <v>0.7754389831958178</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8504777578847839</v>
+        <v>0.8523411387082939</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>660</v>
@@ -4137,19 +4137,19 @@
         <v>409596</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>390937</v>
+        <v>392343</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>425664</v>
+        <v>426252</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7663785050393818</v>
+        <v>0.7663785050393819</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7314664581395146</v>
+        <v>0.734096721875985</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.796441105673603</v>
+        <v>0.7975429773786409</v>
       </c>
     </row>
     <row r="21">
@@ -4241,19 +4241,19 @@
         <v>190195</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>162938</v>
+        <v>165329</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>219182</v>
+        <v>217824</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2651075976878159</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2271142530321331</v>
+        <v>0.2304469151970719</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3055106521527334</v>
+        <v>0.3036185927079236</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>217</v>
@@ -4262,19 +4262,19 @@
         <v>176378</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>155010</v>
+        <v>155621</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>199561</v>
+        <v>199746</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2296035362726239</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2017872866634878</v>
+        <v>0.2025823735423079</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2597820089986344</v>
+        <v>0.2600235652377796</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>372</v>
@@ -4283,19 +4283,19 @@
         <v>366573</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>332897</v>
+        <v>329755</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>401209</v>
+        <v>398648</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2467490489063666</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2240806955757239</v>
+        <v>0.221966025792009</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2700633649763901</v>
+        <v>0.2683391235835992</v>
       </c>
     </row>
     <row r="23">
@@ -4312,19 +4312,19 @@
         <v>527232</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>498245</v>
+        <v>499603</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>554489</v>
+        <v>552098</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.734892402312184</v>
+        <v>0.7348924023121839</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6944893478472663</v>
+        <v>0.6963814072920764</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7728857469678669</v>
+        <v>0.7695530848029282</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>740</v>
@@ -4333,19 +4333,19 @@
         <v>591807</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>568624</v>
+        <v>568439</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>613175</v>
+        <v>612564</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.770396463727376</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7402179910013658</v>
+        <v>0.7399764347622213</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7982127133365124</v>
+        <v>0.7974176264576922</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1182</v>
@@ -4354,19 +4354,19 @@
         <v>1119039</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1084403</v>
+        <v>1086964</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1152715</v>
+        <v>1155857</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7532509510936333</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7299366350236096</v>
+        <v>0.7316608764164008</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.775919304424276</v>
+        <v>0.7780339742079914</v>
       </c>
     </row>
     <row r="24">
@@ -4458,19 +4458,19 @@
         <v>209638</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>180044</v>
+        <v>182807</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>233934</v>
+        <v>235749</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2630571335408584</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2259216610757568</v>
+        <v>0.2293886563548672</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.293544242697366</v>
+        <v>0.2958211180347996</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>161</v>
@@ -4479,19 +4479,19 @@
         <v>135308</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>117569</v>
+        <v>117120</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>157988</v>
+        <v>156510</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1627601102591645</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1414221631550979</v>
+        <v>0.1408819149045296</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.190042181808581</v>
+        <v>0.1882645672415322</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>352</v>
@@ -4500,19 +4500,19 @@
         <v>344946</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>307786</v>
+        <v>308980</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>380252</v>
+        <v>377678</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2118491057726001</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1890275460222921</v>
+        <v>0.1897603424287376</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2335324024501525</v>
+        <v>0.2319518388221628</v>
       </c>
     </row>
     <row r="26">
@@ -4529,19 +4529,19 @@
         <v>587292</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>562996</v>
+        <v>561181</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>616886</v>
+        <v>614123</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.7369428664591418</v>
+        <v>0.7369428664591415</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.706455757302634</v>
+        <v>0.7041788819652006</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.774078338924243</v>
+        <v>0.7706113436451327</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>901</v>
@@ -4550,19 +4550,19 @@
         <v>696023</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>673343</v>
+        <v>674821</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>713762</v>
+        <v>714211</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8372398897408355</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8099578181914191</v>
+        <v>0.8117354327584675</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8585778368449021</v>
+        <v>0.8591180850954703</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1471</v>
@@ -4571,19 +4571,19 @@
         <v>1283316</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1248010</v>
+        <v>1250584</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1320476</v>
+        <v>1319282</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.7881508942273998</v>
+        <v>0.7881508942273999</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7664675975498475</v>
+        <v>0.7680481611778371</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.810972453977708</v>
+        <v>0.8102396575712625</v>
       </c>
     </row>
     <row r="27">
@@ -4675,19 +4675,19 @@
         <v>901748</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>840920</v>
+        <v>844937</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>959501</v>
+        <v>959800</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2554990116196763</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2382641432519156</v>
+        <v>0.2394022922885192</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2718623964469848</v>
+        <v>0.2719471848166741</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>952</v>
@@ -4696,19 +4696,19 @@
         <v>707214</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>663222</v>
+        <v>666124</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>747844</v>
+        <v>756338</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.18953143835764</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1777417211281965</v>
+        <v>0.178519485723527</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2004202949547753</v>
+        <v>0.2026964780136919</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1763</v>
@@ -4717,19 +4717,19 @@
         <v>1608962</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1537825</v>
+        <v>1538225</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1683452</v>
+        <v>1684558</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2215975019216167</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2118000868114483</v>
+        <v>0.2118551120516892</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2318568348086373</v>
+        <v>0.2320091775632078</v>
       </c>
     </row>
     <row r="29">
@@ -4746,19 +4746,19 @@
         <v>2627613</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2569860</v>
+        <v>2569561</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2688441</v>
+        <v>2684424</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.7445009883803236</v>
+        <v>0.7445009883803237</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7281376035530159</v>
+        <v>0.7280528151833261</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7617358567480844</v>
+        <v>0.7605977077114809</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4409</v>
@@ -4767,19 +4767,19 @@
         <v>3024166</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2983536</v>
+        <v>2975042</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3068158</v>
+        <v>3065256</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.81046856164236</v>
+        <v>0.8104685616423599</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7995797050452246</v>
+        <v>0.7973035219863079</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.822258278871803</v>
+        <v>0.821480514276473</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6971</v>
@@ -4788,19 +4788,19 @@
         <v>5651778</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5577288</v>
+        <v>5576182</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5722915</v>
+        <v>5722515</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7784024980783832</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7681431651913628</v>
+        <v>0.7679908224367922</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7881999131885518</v>
+        <v>0.7881448879483108</v>
       </c>
     </row>
     <row r="30">
